--- a/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180819-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180819-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>63.94557823</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>36.05442177</v>
       </c>
       <c r="E10" s="1">
         <v>0.0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>19.16666667</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>17.5</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>28.33333333</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>37.62376238</v>
       </c>
       <c r="K10" s="1">
         <v>0.0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>62.37623762</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>36.97478992</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>50.42016807</v>
       </c>
       <c r="O10" s="1">
         <v>0.0</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>12.60504202</v>
       </c>
     </row>
     <row r="11">
